--- a/Data/swaption value hedge.xlsx
+++ b/Data/swaption value hedge.xlsx
@@ -364,7 +364,7 @@
         <v>24</v>
       </c>
       <c r="B2">
-        <v>5573.483378079429</v>
+        <v>52701.35854333716</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -372,7 +372,7 @@
         <v>36</v>
       </c>
       <c r="B3">
-        <v>2281.798540307217</v>
+        <v>-2.591548515508955</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -380,7 +380,7 @@
         <v>60</v>
       </c>
       <c r="B4">
-        <v>565.9565213967248</v>
+        <v>-626058.6826611503</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -388,7 +388,7 @@
         <v>84</v>
       </c>
       <c r="B5">
-        <v>-398.9045000245774</v>
+        <v>-436699.6220943115</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -396,7 +396,7 @@
         <v>96</v>
       </c>
       <c r="B6">
-        <v>-1588.261657529823</v>
+        <v>-341066.0838443561</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -404,7 +404,7 @@
         <v>120</v>
       </c>
       <c r="B7">
-        <v>-708.3303701633854</v>
+        <v>-274035.6112843832</v>
       </c>
     </row>
   </sheetData>

--- a/Data/swaption value hedge.xlsx
+++ b/Data/swaption value hedge.xlsx
@@ -364,7 +364,7 @@
         <v>24</v>
       </c>
       <c r="B2">
-        <v>52701.35854333716</v>
+        <v>-26558.24934546326</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -372,7 +372,7 @@
         <v>36</v>
       </c>
       <c r="B3">
-        <v>-2.591548515508955</v>
+        <v>-60128.11683073089</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -380,7 +380,7 @@
         <v>60</v>
       </c>
       <c r="B4">
-        <v>-626058.6826611503</v>
+        <v>-4270.144661858893</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -388,7 +388,7 @@
         <v>84</v>
       </c>
       <c r="B5">
-        <v>-436699.6220943115</v>
+        <v>3923.51232184233</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -396,7 +396,7 @@
         <v>96</v>
       </c>
       <c r="B6">
-        <v>-341066.0838443561</v>
+        <v>8534.600896682488</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -404,7 +404,7 @@
         <v>120</v>
       </c>
       <c r="B7">
-        <v>-274035.6112843832</v>
+        <v>2.89728406527943</v>
       </c>
     </row>
   </sheetData>
